--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
-  <si>
-    <t>93 doctors available in Bangalore</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>90 doctors available in Bangalore</t>
   </si>
   <si>
     <t xml:space="preserve">         </t>
@@ -52,12 +52,12 @@
 36 Years Experience Overall  (35 years as specialist)</t>
   </si>
   <si>
-    <t>Dr. Raghunandana D Karantha</t>
-  </si>
-  <si>
-    <t>BDS
-Dentist, Dental Surgeon
-35 Years Experience Overall</t>
+    <t>Dr. Uday Kamath</t>
+  </si>
+  <si>
+    <t>MDS - Conservative Dentistry &amp; Endodontics, BDS
+Endodontist, Dentist, Cosmetic/Aesthetic Dentist
+36 Years Experience Overall  (35 years as specialist)</t>
   </si>
   <si>
     <t xml:space="preserve">           </t>
@@ -165,7 +165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A88"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -253,361 +253,91 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -14,18 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
-    <t>90 doctors available in Bangalore</t>
+    <t>32 doctors available in Bangalore</t>
   </si>
   <si>
     <t xml:space="preserve">         </t>
-  </si>
-  <si>
-    <t>Dr. K.A. Mohan</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Orthodontics
-Orthodontist, Dentist, Dentofacial Orthopedist, Dental Surgeon
-55 Years Experience Overall  (47 years as specialist)</t>
   </si>
   <si>
     <t>Dr. Vathsala Naik</t>
@@ -44,20 +36,28 @@
 38 Years Experience Overall  (37 years as specialist)</t>
   </si>
   <si>
-    <t>Dr. Sanjay Mohanchandra</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Oral &amp; Maxillofacial Surgery
-Dentist, Oral And MaxilloFacial Surgeon, Implantologist, Cosmetic/Aesthetic Dentist
-36 Years Experience Overall  (35 years as specialist)</t>
-  </si>
-  <si>
-    <t>Dr. Uday Kamath</t>
-  </si>
-  <si>
-    <t>MDS - Conservative Dentistry &amp; Endodontics, BDS
-Endodontist, Dentist, Cosmetic/Aesthetic Dentist
-36 Years Experience Overall  (35 years as specialist)</t>
+    <t>Dr. Sharon Colaco Dias</t>
+  </si>
+  <si>
+    <t>BDS, MDS
+Dentist, Implantologist, Cosmetic/Aesthetic Dentist
+35 Years Experience Overall  (34 years as specialist)</t>
+  </si>
+  <si>
+    <t>Dr. P S Lakshmi</t>
+  </si>
+  <si>
+    <t>BDS
+Cosmetic/Aesthetic Dentist, Dentist
+29 Years Experience Overall  (26 years as specialist)</t>
+  </si>
+  <si>
+    <t>Dr. Raju Srinivas</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Conservative Dentistry &amp; Endodontics
+Dentist, Dental Surgeon, Endodontist, Cosmetic/Aesthetic Dentist, Implantologist
+28 Years Experience Overall  (27 years as specialist)</t>
   </si>
   <si>
     <t xml:space="preserve">           </t>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>32 doctors available in Bangalore</t>
   </si>
@@ -165,7 +165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -341,6 +341,176 @@
         <v>32</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
